--- a/prix/v33.xlsx
+++ b/prix/v33.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153EDEBB-A7A1-4848-959C-2DE9D80FFF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86438929-0A8F-4EB8-8C84-F4E482E03D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="244">
   <si>
     <t>path</t>
   </si>
@@ -732,6 +732,42 @@
   </si>
   <si>
     <t>1l Mat blanc</t>
+  </si>
+  <si>
+    <t>v33/bois-de-jardin.png</t>
+  </si>
+  <si>
+    <t>v33/huile-cire-escaliers.png</t>
+  </si>
+  <si>
+    <t>v33/huile-cire-parquet.png</t>
+  </si>
+  <si>
+    <t>v33/huile-plan-travail-mat.png</t>
+  </si>
+  <si>
+    <t>v33/huile-terrasse.png</t>
+  </si>
+  <si>
+    <t>v33/primer-bois.png</t>
+  </si>
+  <si>
+    <t>v33/protection.png</t>
+  </si>
+  <si>
+    <t>v33/sol-extreme.png</t>
+  </si>
+  <si>
+    <t>v33/vernis-meuble.png</t>
+  </si>
+  <si>
+    <t>v33/vernis-yacht.png</t>
+  </si>
+  <si>
+    <t>v33/vitrificateur-escaliers.png</t>
+  </si>
+  <si>
+    <t>v33/vitrificateur-parquet.png</t>
   </si>
 </sst>
 </file>
@@ -784,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -812,9 +848,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1156,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1193,7 +1226,9 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -1203,15 +1238,17 @@
       <c r="D2" s="10">
         <v>21.150000000000002</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1221,15 +1258,17 @@
       <c r="D3" s="10">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1239,15 +1278,17 @@
       <c r="D4" s="10">
         <v>14.8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1257,15 +1298,17 @@
       <c r="D5" s="10">
         <v>21.55</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1275,15 +1318,17 @@
       <c r="D6" s="10">
         <v>35</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
@@ -1293,15 +1338,17 @@
       <c r="D7" s="10">
         <v>15.1</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
@@ -1311,15 +1358,17 @@
       <c r="D8" s="10">
         <v>21.55</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
@@ -1329,15 +1378,17 @@
       <c r="D9" s="10">
         <v>35.590000000000003</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
@@ -1347,15 +1398,17 @@
       <c r="D10" s="10">
         <v>29.25</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
@@ -1365,15 +1418,17 @@
       <c r="D11" s="10">
         <v>16.71</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
@@ -1383,15 +1438,17 @@
       <c r="D12" s="10">
         <v>15.290000000000001</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
@@ -1401,15 +1458,17 @@
       <c r="D13" s="10">
         <v>15.1</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1419,15 +1478,17 @@
       <c r="D14" s="10">
         <v>13.65</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
@@ -1437,15 +1498,17 @@
       <c r="D15" s="10">
         <v>13.65</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
@@ -1455,15 +1518,17 @@
       <c r="D16" s="10">
         <v>12.950000000000001</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
@@ -1473,15 +1538,17 @@
       <c r="D17" s="10">
         <v>14.8</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
@@ -1491,15 +1558,17 @@
       <c r="D18" s="10">
         <v>15.290000000000001</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
@@ -1509,15 +1578,17 @@
       <c r="D19" s="10">
         <v>34.99</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
@@ -1527,15 +1598,17 @@
       <c r="D20" s="10">
         <v>30.95</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
@@ -1545,15 +1618,17 @@
       <c r="D21" s="10">
         <v>40.97</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
@@ -1563,15 +1638,17 @@
       <c r="D22" s="10">
         <v>32.75</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
@@ -1581,15 +1658,17 @@
       <c r="D23" s="10">
         <v>29.95</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B24" s="9" t="s">
         <v>28</v>
       </c>
@@ -1599,15 +1678,17 @@
       <c r="D24" s="10">
         <v>41.68</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
@@ -1617,15 +1698,17 @@
       <c r="D25" s="10">
         <v>37.65</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
@@ -1635,15 +1718,17 @@
       <c r="D26" s="10">
         <v>29.95</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
@@ -1653,15 +1738,17 @@
       <c r="D27" s="10">
         <v>33.75</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="B28" s="9" t="s">
         <v>32</v>
       </c>
@@ -1671,15 +1758,17 @@
       <c r="D28" s="10">
         <v>37.86</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="B29" s="9" t="s">
         <v>33</v>
       </c>
@@ -1689,15 +1778,17 @@
       <c r="D29" s="10">
         <v>37.32</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="B30" s="9" t="s">
         <v>34</v>
       </c>
@@ -1707,15 +1798,17 @@
       <c r="D30" s="10">
         <v>29.990000000000002</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="B31" s="9" t="s">
         <v>35</v>
       </c>
@@ -1725,15 +1818,17 @@
       <c r="D31" s="10">
         <v>29.990000000000002</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="B32" s="9" t="s">
         <v>36</v>
       </c>
@@ -1743,15 +1838,17 @@
       <c r="D32" s="10">
         <v>30.85</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
@@ -1761,15 +1858,17 @@
       <c r="D33" s="10">
         <v>63.02</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="B34" s="9" t="s">
         <v>38</v>
       </c>
@@ -1779,15 +1878,17 @@
       <c r="D34" s="10">
         <v>115.10000000000001</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
@@ -1797,15 +1898,17 @@
       <c r="D35" s="10">
         <v>113.10000000000001</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
@@ -1815,15 +1918,17 @@
       <c r="D36" s="10">
         <v>79.989999999999995</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
@@ -1833,15 +1938,17 @@
       <c r="D37" s="10">
         <v>85.75</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="B38" s="9" t="s">
         <v>42</v>
       </c>
@@ -1851,15 +1958,17 @@
       <c r="D38" s="10">
         <v>93.3</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B39" s="9" t="s">
         <v>43</v>
       </c>
@@ -1869,15 +1978,17 @@
       <c r="D39" s="10">
         <v>75</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="B40" s="9" t="s">
         <v>44</v>
       </c>
@@ -1887,15 +1998,17 @@
       <c r="D40" s="10">
         <v>89.55</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
+      <c r="A41" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="B41" s="9" t="s">
         <v>45</v>
       </c>
@@ -1905,15 +2018,17 @@
       <c r="D41" s="10">
         <v>42.5</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="B42" s="9" t="s">
         <v>46</v>
       </c>
@@ -1923,15 +2038,17 @@
       <c r="D42" s="10">
         <v>42.5</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
+      <c r="A43" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B43" s="9" t="s">
         <v>47</v>
       </c>
@@ -1941,15 +2058,17 @@
       <c r="D43" s="10">
         <v>74.95</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
+      <c r="A44" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B44" s="9" t="s">
         <v>48</v>
       </c>
@@ -1959,15 +2078,17 @@
       <c r="D44" s="10">
         <v>74.95</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B45" s="9" t="s">
         <v>49</v>
       </c>
@@ -1977,15 +2098,17 @@
       <c r="D45" s="10">
         <v>74.95</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B46" s="9" t="s">
         <v>50</v>
       </c>
@@ -1995,15 +2118,17 @@
       <c r="D46" s="10">
         <v>74.95</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
+      <c r="A47" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B47" s="9" t="s">
         <v>51</v>
       </c>
@@ -2013,15 +2138,17 @@
       <c r="D47" s="10">
         <v>90.2</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
+      <c r="A48" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="B48" s="9" t="s">
         <v>52</v>
       </c>
@@ -2031,15 +2158,17 @@
       <c r="D48" s="10">
         <v>77.989999999999995</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
+      <c r="A49" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="B49" s="9" t="s">
         <v>53</v>
       </c>
@@ -2049,15 +2178,17 @@
       <c r="D49" s="10">
         <v>77.989999999999995</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
+      <c r="A50" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="B50" s="9" t="s">
         <v>54</v>
       </c>
@@ -2067,15 +2198,17 @@
       <c r="D50" s="10">
         <v>77.989999999999995</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="B51" s="9" t="s">
         <v>55</v>
       </c>
@@ -2085,10 +2218,10 @@
       <c r="D51" s="10">
         <v>75</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2103,10 +2236,10 @@
       <c r="D52" s="10">
         <v>19.72</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <v>6</v>
       </c>
     </row>
@@ -2121,10 +2254,10 @@
       <c r="D53" s="10">
         <v>63.190000000000005</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2139,15 +2272,17 @@
       <c r="D54" s="10">
         <v>199.46</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
+      <c r="A55" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="B55" s="9" t="s">
         <v>59</v>
       </c>
@@ -2157,15 +2292,17 @@
       <c r="D55" s="10">
         <v>36.54</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
+      <c r="A56" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="B56" s="9" t="s">
         <v>60</v>
       </c>
@@ -2175,15 +2312,17 @@
       <c r="D56" s="10">
         <v>36.57</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
+      <c r="A57" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="B57" s="9" t="s">
         <v>61</v>
       </c>
@@ -2193,15 +2332,17 @@
       <c r="D57" s="10">
         <v>36.57</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
+      <c r="A58" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="B58" s="9" t="s">
         <v>62</v>
       </c>
@@ -2211,15 +2352,17 @@
       <c r="D58" s="10">
         <v>63.15</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
+      <c r="A59" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="B59" s="9" t="s">
         <v>63</v>
       </c>
@@ -2229,15 +2372,17 @@
       <c r="D59" s="10">
         <v>63.15</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="B60" s="9" t="s">
         <v>64</v>
       </c>
@@ -2247,15 +2392,17 @@
       <c r="D60" s="10">
         <v>63.15</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
+      <c r="A61" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="B61" s="9" t="s">
         <v>65</v>
       </c>
@@ -2265,15 +2412,17 @@
       <c r="D61" s="10">
         <v>41.56</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B62" s="9" t="s">
         <v>66</v>
       </c>
@@ -2283,15 +2432,17 @@
       <c r="D62" s="10">
         <v>21.150000000000002</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B63" s="9" t="s">
         <v>67</v>
       </c>
@@ -2301,15 +2452,17 @@
       <c r="D63" s="10">
         <v>21.55</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B64" s="9" t="s">
         <v>68</v>
       </c>
@@ -2319,15 +2472,17 @@
       <c r="D64" s="10">
         <v>21.150000000000002</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
+      <c r="A65" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B65" s="9" t="s">
         <v>69</v>
       </c>
@@ -2337,15 +2492,17 @@
       <c r="D65" s="10">
         <v>21.150000000000002</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B66" s="9" t="s">
         <v>70</v>
       </c>
@@ -2355,15 +2512,17 @@
       <c r="D66" s="10">
         <v>21.150000000000002</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
+      <c r="A67" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B67" s="9" t="s">
         <v>71</v>
       </c>
@@ -2373,15 +2532,17 @@
       <c r="D67" s="10">
         <v>21.150000000000002</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
+      <c r="A68" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B68" s="9" t="s">
         <v>72</v>
       </c>
@@ -2391,15 +2552,17 @@
       <c r="D68" s="10">
         <v>20.059999999999999</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="B69" s="9" t="s">
         <v>73</v>
       </c>
@@ -2409,15 +2572,17 @@
       <c r="D69" s="10">
         <v>27.95</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
+      <c r="A70" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="B70" s="9" t="s">
         <v>74</v>
       </c>
@@ -2427,15 +2592,17 @@
       <c r="D70" s="10">
         <v>11.91</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
+      <c r="A71" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="B71" s="9" t="s">
         <v>75</v>
       </c>
@@ -2445,15 +2612,17 @@
       <c r="D71" s="10">
         <v>31.25</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
+      <c r="A72" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="B72" s="9" t="s">
         <v>76</v>
       </c>
@@ -2463,15 +2632,17 @@
       <c r="D72" s="10">
         <v>28.18</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
+      <c r="A73" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="B73" s="9" t="s">
         <v>77</v>
       </c>
@@ -2481,15 +2652,17 @@
       <c r="D73" s="10">
         <v>29.48</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
+      <c r="A74" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="B74" s="9" t="s">
         <v>78</v>
       </c>
@@ -2499,15 +2672,17 @@
       <c r="D74" s="10">
         <v>32</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
+      <c r="A75" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="B75" s="9" t="s">
         <v>79</v>
       </c>
@@ -2517,15 +2692,17 @@
       <c r="D75" s="10">
         <v>32</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
+      <c r="A76" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="B76" s="9" t="s">
         <v>80</v>
       </c>
@@ -2535,15 +2712,17 @@
       <c r="D76" s="10">
         <v>32</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
+      <c r="A77" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="B77" s="9" t="s">
         <v>81</v>
       </c>
@@ -2553,15 +2732,17 @@
       <c r="D77" s="10">
         <v>114.9</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="B78" s="9" t="s">
         <v>82</v>
       </c>
@@ -2571,15 +2752,17 @@
       <c r="D78" s="10">
         <v>114.9</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
+      <c r="A79" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="B79" s="9" t="s">
         <v>83</v>
       </c>
@@ -2589,15 +2772,17 @@
       <c r="D79" s="10">
         <v>114.9</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="B80" s="9" t="s">
         <v>84</v>
       </c>
@@ -2607,10 +2792,10 @@
       <c r="D80" s="10">
         <v>113.10000000000001</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="11">
         <v>2</v>
       </c>
     </row>

--- a/prix/v33.xlsx
+++ b/prix/v33.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\peintures\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86438929-0A8F-4EB8-8C84-F4E482E03D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD2E071-B8AE-42E5-87F6-765942667B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -847,10 +847,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D2" sqref="D2:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,13 +1235,13 @@
       <c r="C2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>21.150000000000002</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1255,13 +1255,13 @@
       <c r="C3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>35</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1275,13 +1275,13 @@
       <c r="C4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>14.8</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1295,13 +1295,13 @@
       <c r="C5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>21.55</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1315,13 +1315,13 @@
       <c r="C6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>35</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1335,13 +1335,13 @@
       <c r="C7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>15.1</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1355,13 +1355,13 @@
       <c r="C8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>21.55</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1375,13 +1375,13 @@
       <c r="C9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>35.590000000000003</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1395,13 +1395,13 @@
       <c r="C10" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>29.25</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1415,13 +1415,13 @@
       <c r="C11" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>16.71</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1435,13 +1435,13 @@
       <c r="C12" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>15.290000000000001</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1455,13 +1455,13 @@
       <c r="C13" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <v>15.1</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1475,13 +1475,13 @@
       <c r="C14" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>13.65</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1495,13 +1495,13 @@
       <c r="C15" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <v>13.65</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1515,13 +1515,13 @@
       <c r="C16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>12.950000000000001</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1535,13 +1535,13 @@
       <c r="C17" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="11">
         <v>14.8</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1555,13 +1555,13 @@
       <c r="C18" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <v>15.290000000000001</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1575,13 +1575,13 @@
       <c r="C19" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="11">
         <v>34.99</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1595,13 +1595,13 @@
       <c r="C20" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="11">
         <v>30.95</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1615,13 +1615,13 @@
       <c r="C21" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
         <v>40.97</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1635,13 +1635,13 @@
       <c r="C22" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <v>32.75</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1655,13 +1655,13 @@
       <c r="C23" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="11">
         <v>29.95</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1675,13 +1675,13 @@
       <c r="C24" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="11">
         <v>41.68</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1695,13 +1695,13 @@
       <c r="C25" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="11">
         <v>37.65</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1715,13 +1715,13 @@
       <c r="C26" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
         <v>29.95</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1735,13 +1735,13 @@
       <c r="C27" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="11">
         <v>33.75</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1755,13 +1755,13 @@
       <c r="C28" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="11">
         <v>37.86</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1775,13 +1775,13 @@
       <c r="C29" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="11">
         <v>37.32</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1795,13 +1795,13 @@
       <c r="C30" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="11">
         <v>29.990000000000002</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1815,13 +1815,13 @@
       <c r="C31" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="11">
         <v>29.990000000000002</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1835,13 +1835,13 @@
       <c r="C32" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="11">
         <v>30.85</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1855,13 +1855,13 @@
       <c r="C33" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="11">
         <v>63.02</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1875,13 +1875,13 @@
       <c r="C34" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="11">
         <v>115.10000000000001</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1895,13 +1895,13 @@
       <c r="C35" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="11">
         <v>113.10000000000001</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1915,13 +1915,13 @@
       <c r="C36" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="11">
         <v>79.989999999999995</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1935,13 +1935,13 @@
       <c r="C37" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="11">
         <v>85.75</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1955,13 +1955,13 @@
       <c r="C38" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="11">
         <v>93.3</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1975,13 +1975,13 @@
       <c r="C39" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="11">
         <v>75</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1995,13 +1995,13 @@
       <c r="C40" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="11">
         <v>89.55</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>4</v>
       </c>
     </row>
@@ -2015,13 +2015,13 @@
       <c r="C41" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="11">
         <v>42.5</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2035,13 +2035,13 @@
       <c r="C42" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="11">
         <v>42.5</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>9</v>
       </c>
     </row>
@@ -2055,13 +2055,13 @@
       <c r="C43" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="11">
         <v>74.95</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2075,13 +2075,13 @@
       <c r="C44" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="11">
         <v>74.95</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2095,13 +2095,13 @@
       <c r="C45" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="11">
         <v>74.95</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2115,14 +2115,14 @@
       <c r="C46" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="10">
-        <v>74.95</v>
+      <c r="D46" s="11">
+        <v>90.2</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="11">
-        <v>0</v>
+      <c r="F46" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2135,13 +2135,13 @@
       <c r="C47" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="11">
         <v>90.2</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2155,13 +2155,13 @@
       <c r="C48" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="11">
         <v>77.989999999999995</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2175,13 +2175,13 @@
       <c r="C49" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="11">
         <v>77.989999999999995</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2195,13 +2195,13 @@
       <c r="C50" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="11">
         <v>77.989999999999995</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2215,13 +2215,13 @@
       <c r="C51" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="11">
         <v>75</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2233,13 +2233,13 @@
       <c r="C52" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="11">
         <v>19.72</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2251,14 +2251,14 @@
       <c r="C53" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="11">
         <v>63.190000000000005</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F53" s="11">
-        <v>3</v>
+      <c r="F53" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2269,13 +2269,13 @@
       <c r="C54" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="11">
         <v>199.46</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2289,13 +2289,13 @@
       <c r="C55" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="11">
         <v>36.54</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2309,13 +2309,13 @@
       <c r="C56" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="11">
         <v>36.57</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2329,13 +2329,13 @@
       <c r="C57" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="11">
         <v>36.57</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2349,13 +2349,13 @@
       <c r="C58" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="11">
         <v>63.15</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2369,13 +2369,13 @@
       <c r="C59" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="11">
         <v>63.15</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <v>4</v>
       </c>
     </row>
@@ -2389,13 +2389,13 @@
       <c r="C60" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="11">
         <v>63.15</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2409,13 +2409,13 @@
       <c r="C61" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="11">
         <v>41.56</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2429,13 +2429,13 @@
       <c r="C62" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="11">
         <v>21.150000000000002</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2449,13 +2449,13 @@
       <c r="C63" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="11">
         <v>21.55</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2469,13 +2469,13 @@
       <c r="C64" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="11">
         <v>21.150000000000002</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2489,13 +2489,13 @@
       <c r="C65" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="11">
         <v>21.150000000000002</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <v>4</v>
       </c>
     </row>
@@ -2509,13 +2509,13 @@
       <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="11">
         <v>21.150000000000002</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2529,13 +2529,13 @@
       <c r="C67" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="11">
         <v>21.150000000000002</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2549,13 +2549,13 @@
       <c r="C68" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="11">
         <v>20.059999999999999</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2569,14 +2569,14 @@
       <c r="C69" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="10">
-        <v>27.95</v>
+      <c r="D69" s="11">
+        <v>35.58</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F69" s="11">
-        <v>1</v>
+      <c r="F69" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2589,13 +2589,13 @@
       <c r="C70" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="11">
         <v>11.91</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2609,13 +2609,13 @@
       <c r="C71" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="11">
         <v>31.25</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <v>4</v>
       </c>
     </row>
@@ -2629,14 +2629,14 @@
       <c r="C72" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D72" s="10">
-        <v>28.18</v>
+      <c r="D72" s="11">
+        <v>31.25</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F72" s="11">
-        <v>0</v>
+      <c r="F72" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2649,13 +2649,13 @@
       <c r="C73" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="11">
         <v>29.48</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2669,13 +2669,13 @@
       <c r="C74" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="11">
         <v>32</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2689,13 +2689,13 @@
       <c r="C75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="11">
         <v>32</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2709,13 +2709,13 @@
       <c r="C76" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="11">
         <v>32</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2729,13 +2729,13 @@
       <c r="C77" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="11">
         <v>114.9</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2749,13 +2749,13 @@
       <c r="C78" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="11">
         <v>114.9</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2769,13 +2769,13 @@
       <c r="C79" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="11">
         <v>114.9</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2789,13 +2789,13 @@
       <c r="C80" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="11">
         <v>113.10000000000001</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="10">
         <v>2</v>
       </c>
     </row>

--- a/prix/v33.xlsx
+++ b/prix/v33.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\peintures\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peintures\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD2E071-B8AE-42E5-87F6-765942667B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E251996-C2E6-471E-9560-98A8E142FF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,6 +798,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -820,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -851,6 +858,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1189,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D80"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2415,8 +2425,8 @@
       <c r="E61" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F61" s="10">
-        <v>1</v>
+      <c r="F61" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
